--- a/Code/Results/Cases/Case_1_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.033534829744716</v>
+        <v>1.073692111274723</v>
       </c>
       <c r="D2">
-        <v>1.054200940065413</v>
+        <v>1.058218211496913</v>
       </c>
       <c r="E2">
-        <v>1.04206942703613</v>
+        <v>1.077075311459607</v>
       </c>
       <c r="F2">
-        <v>1.050367710111232</v>
+        <v>1.086562834020236</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066385200226324</v>
+        <v>1.057206421313754</v>
       </c>
       <c r="J2">
-        <v>1.05475678004552</v>
+        <v>1.078605341527467</v>
       </c>
       <c r="K2">
-        <v>1.064953487711536</v>
+        <v>1.060951046734055</v>
       </c>
       <c r="L2">
-        <v>1.052972203435578</v>
+        <v>1.079757565694581</v>
       </c>
       <c r="M2">
-        <v>1.061167259297916</v>
+        <v>1.089220356331565</v>
       </c>
       <c r="N2">
-        <v>1.056254655655479</v>
+        <v>1.080137084830198</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041873903604336</v>
+        <v>1.075292073299121</v>
       </c>
       <c r="D3">
-        <v>1.058828122356638</v>
+        <v>1.059070374326858</v>
       </c>
       <c r="E3">
-        <v>1.04948438430215</v>
+        <v>1.078523867392174</v>
       </c>
       <c r="F3">
-        <v>1.058130241167405</v>
+        <v>1.088099767924962</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069588496396339</v>
+        <v>1.057712079487659</v>
       </c>
       <c r="J3">
-        <v>1.061284670956538</v>
+        <v>1.079861051147557</v>
       </c>
       <c r="K3">
-        <v>1.068759802562854</v>
+        <v>1.061617102541083</v>
       </c>
       <c r="L3">
-        <v>1.059520958884703</v>
+        <v>1.081022206009091</v>
       </c>
       <c r="M3">
-        <v>1.068069677148698</v>
+        <v>1.090574969929079</v>
       </c>
       <c r="N3">
-        <v>1.06279181692035</v>
+        <v>1.081394577701981</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.047092930499277</v>
+        <v>1.076325182139354</v>
       </c>
       <c r="D4">
-        <v>1.061731707196632</v>
+        <v>1.059620665597557</v>
       </c>
       <c r="E4">
-        <v>1.054126651385527</v>
+        <v>1.079458937069582</v>
       </c>
       <c r="F4">
-        <v>1.062993841810531</v>
+        <v>1.089092373374839</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.071581923343013</v>
+        <v>1.058037076411512</v>
       </c>
       <c r="J4">
-        <v>1.065364165552284</v>
+        <v>1.080670999157529</v>
       </c>
       <c r="K4">
-        <v>1.071138079623907</v>
+        <v>1.062046327911244</v>
       </c>
       <c r="L4">
-        <v>1.063612921260283</v>
+        <v>1.081837748434588</v>
       </c>
       <c r="M4">
-        <v>1.072387089512084</v>
+        <v>1.09144909363406</v>
       </c>
       <c r="N4">
-        <v>1.066877104866346</v>
+        <v>1.082205675931029</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.049247260688984</v>
+        <v>1.076758991419494</v>
       </c>
       <c r="D5">
-        <v>1.062931882686714</v>
+        <v>1.059851744365672</v>
       </c>
       <c r="E5">
-        <v>1.056043210132272</v>
+        <v>1.079851512805148</v>
       </c>
       <c r="F5">
-        <v>1.065002668905722</v>
+        <v>1.08950922094694</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.072401969768046</v>
+        <v>1.058173182423677</v>
       </c>
       <c r="J5">
-        <v>1.067046617390029</v>
+        <v>1.081010892097526</v>
       </c>
       <c r="K5">
-        <v>1.072118716490391</v>
+        <v>1.062226356927745</v>
       </c>
       <c r="L5">
-        <v>1.065300372854222</v>
+        <v>1.082179949408066</v>
       </c>
       <c r="M5">
-        <v>1.074168577763047</v>
+        <v>1.091816009101814</v>
       </c>
       <c r="N5">
-        <v>1.068561945978681</v>
+        <v>1.082546051557987</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.04960672252208</v>
+        <v>1.076831800327847</v>
       </c>
       <c r="D6">
-        <v>1.063132228061079</v>
+        <v>1.059890528139427</v>
       </c>
       <c r="E6">
-        <v>1.056363014321137</v>
+        <v>1.079917397334065</v>
       </c>
       <c r="F6">
-        <v>1.065337921636565</v>
+        <v>1.089579185742899</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.072538631555676</v>
+        <v>1.058196004670526</v>
       </c>
       <c r="J6">
-        <v>1.067327254006426</v>
+        <v>1.081067926138834</v>
       </c>
       <c r="K6">
-        <v>1.072282273892551</v>
+        <v>1.062256560216599</v>
       </c>
       <c r="L6">
-        <v>1.065581834941638</v>
+        <v>1.082237368414383</v>
       </c>
       <c r="M6">
-        <v>1.074465787391214</v>
+        <v>1.091877582881484</v>
       </c>
       <c r="N6">
-        <v>1.068842981131263</v>
+        <v>1.082603166594175</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.047121869688364</v>
+        <v>1.076330980709682</v>
       </c>
       <c r="D7">
-        <v>1.061747823039854</v>
+        <v>1.059623754315454</v>
       </c>
       <c r="E7">
-        <v>1.054152395470868</v>
+        <v>1.079464184747116</v>
       </c>
       <c r="F7">
-        <v>1.063020821762795</v>
+        <v>1.089097945044359</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.071592950280007</v>
+        <v>1.058038897116307</v>
       </c>
       <c r="J7">
-        <v>1.065386771989799</v>
+        <v>1.080675543206938</v>
       </c>
       <c r="K7">
-        <v>1.071151256996025</v>
+        <v>1.062048735103463</v>
       </c>
       <c r="L7">
-        <v>1.063635595447055</v>
+        <v>1.081842323496043</v>
       </c>
       <c r="M7">
-        <v>1.072411023051228</v>
+        <v>1.091453998590084</v>
       </c>
       <c r="N7">
-        <v>1.066899743407595</v>
+        <v>1.08221022643351</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.03639133784773</v>
+        <v>1.074233282436081</v>
       </c>
       <c r="D8">
-        <v>1.0557842024651</v>
+        <v>1.058506436772909</v>
       </c>
       <c r="E8">
-        <v>1.044608994514233</v>
+        <v>1.077565327792587</v>
       </c>
       <c r="F8">
-        <v>1.053025527972432</v>
+        <v>1.087082645878248</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067484824696858</v>
+        <v>1.057377767997524</v>
       </c>
       <c r="J8">
-        <v>1.056994108186595</v>
+        <v>1.07903025381357</v>
       </c>
       <c r="K8">
-        <v>1.066258060895534</v>
+        <v>1.061176509303592</v>
       </c>
       <c r="L8">
-        <v>1.055216800083151</v>
+        <v>1.080185534483794</v>
       </c>
       <c r="M8">
-        <v>1.06353212451626</v>
+        <v>1.089678657023304</v>
       </c>
       <c r="N8">
-        <v>1.058495161059138</v>
+        <v>1.080562600540486</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.015996031543263</v>
+        <v>1.070519742466358</v>
       </c>
       <c r="D9">
-        <v>1.044523078388523</v>
+        <v>1.056528892533042</v>
       </c>
       <c r="E9">
-        <v>1.026487319271575</v>
+        <v>1.074201698882506</v>
       </c>
       <c r="F9">
-        <v>1.034076464441875</v>
+        <v>1.083516498515569</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.059587837454251</v>
+        <v>1.056195786632188</v>
       </c>
       <c r="J9">
-        <v>1.040996304107508</v>
+        <v>1.076110901907652</v>
       </c>
       <c r="K9">
-        <v>1.056932860412283</v>
+        <v>1.059625925244611</v>
       </c>
       <c r="L9">
-        <v>1.039164793439266</v>
+        <v>1.077244494794832</v>
       </c>
       <c r="M9">
-        <v>1.046639851234913</v>
+        <v>1.086531483393146</v>
       </c>
       <c r="N9">
-        <v>1.042474638263286</v>
+        <v>1.077639102820007</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.001187437535584</v>
+        <v>1.068031858937276</v>
       </c>
       <c r="D10">
-        <v>1.036415015426773</v>
+        <v>1.055204478347131</v>
       </c>
       <c r="E10">
-        <v>1.013348218171386</v>
+        <v>1.071946852621314</v>
       </c>
       <c r="F10">
-        <v>1.02035883745301</v>
+        <v>1.081128422552664</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.053799868538355</v>
+        <v>1.055396158548628</v>
       </c>
       <c r="J10">
-        <v>1.029354022330276</v>
+        <v>1.07415058916676</v>
       </c>
       <c r="K10">
-        <v>1.050156504984243</v>
+        <v>1.058582836191676</v>
       </c>
       <c r="L10">
-        <v>1.027480577437211</v>
+        <v>1.075268749280789</v>
       </c>
       <c r="M10">
-        <v>1.034369985195124</v>
+        <v>1.084420169773246</v>
       </c>
       <c r="N10">
-        <v>1.030815823110542</v>
+        <v>1.075676006210172</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9944302982359616</v>
+        <v>1.066951535703125</v>
       </c>
       <c r="D11">
-        <v>1.032736238939842</v>
+        <v>1.05462950937498</v>
       </c>
       <c r="E11">
-        <v>1.007359141928904</v>
+        <v>1.070967398969375</v>
       </c>
       <c r="F11">
-        <v>1.014111236614614</v>
+        <v>1.080091699306351</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051147663898303</v>
+        <v>1.055047100472049</v>
       </c>
       <c r="J11">
-        <v>1.024036633100316</v>
+        <v>1.073298292953624</v>
       </c>
       <c r="K11">
-        <v>1.047066121706361</v>
+        <v>1.058128896889095</v>
       </c>
       <c r="L11">
-        <v>1.022143597358777</v>
+        <v>1.074409535722764</v>
       </c>
       <c r="M11">
-        <v>1.028771853503493</v>
+        <v>1.083502691673395</v>
       </c>
       <c r="N11">
-        <v>1.025490882577963</v>
+        <v>1.074822499638653</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9918627337971573</v>
+        <v>1.066549783757778</v>
       </c>
       <c r="D12">
-        <v>1.031341980880093</v>
+        <v>1.054415712399632</v>
       </c>
       <c r="E12">
-        <v>1.005084551620617</v>
+        <v>1.070603110454593</v>
       </c>
       <c r="F12">
-        <v>1.011739248704753</v>
+        <v>1.079706201163994</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050138374575383</v>
+        <v>1.054917017691414</v>
       </c>
       <c r="J12">
-        <v>1.022015515046636</v>
+        <v>1.072981180754675</v>
       </c>
       <c r="K12">
-        <v>1.045892382615084</v>
+        <v>1.057959937569468</v>
       </c>
       <c r="L12">
-        <v>1.02011498368121</v>
+        <v>1.074089818512156</v>
       </c>
       <c r="M12">
-        <v>1.02664494692849</v>
+        <v>1.083161397957304</v>
       </c>
       <c r="N12">
-        <v>1.023466894304821</v>
+        <v>1.074504937104009</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9924161984813011</v>
+        <v>1.066635982474831</v>
       </c>
       <c r="D13">
-        <v>1.031642357368228</v>
+        <v>1.054461582957648</v>
       </c>
       <c r="E13">
-        <v>1.005574808671578</v>
+        <v>1.070681273295662</v>
       </c>
       <c r="F13">
-        <v>1.012250462812351</v>
+        <v>1.079788910701536</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050356002364197</v>
+        <v>1.054944940285076</v>
       </c>
       <c r="J13">
-        <v>1.022451213652602</v>
+        <v>1.073049226614972</v>
       </c>
       <c r="K13">
-        <v>1.046145364721324</v>
+        <v>1.057996195645838</v>
       </c>
       <c r="L13">
-        <v>1.020552300058121</v>
+        <v>1.074158424772463</v>
       </c>
       <c r="M13">
-        <v>1.027103408550671</v>
+        <v>1.083234629488179</v>
       </c>
       <c r="N13">
-        <v>1.023903211652782</v>
+        <v>1.074573079597232</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9942192759710989</v>
+        <v>1.06691833646256</v>
       </c>
       <c r="D14">
-        <v>1.032621572429298</v>
+        <v>1.05461184152391</v>
       </c>
       <c r="E14">
-        <v>1.007172174563478</v>
+        <v>1.07093729654073</v>
       </c>
       <c r="F14">
-        <v>1.013916247331548</v>
+        <v>1.080059842402399</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051064742250799</v>
+        <v>1.055036356526064</v>
       </c>
       <c r="J14">
-        <v>1.02387053390742</v>
+        <v>1.073272091262178</v>
       </c>
       <c r="K14">
-        <v>1.046969642071008</v>
+        <v>1.058114937743293</v>
       </c>
       <c r="L14">
-        <v>1.021976883050788</v>
+        <v>1.074383119428348</v>
       </c>
       <c r="M14">
-        <v>1.028597041554551</v>
+        <v>1.083474490522289</v>
       </c>
       <c r="N14">
-        <v>1.02532454750516</v>
+        <v>1.0747962607378</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.995322380128054</v>
+        <v>1.067092241162517</v>
       </c>
       <c r="D15">
-        <v>1.03322113234746</v>
+        <v>1.054704390460107</v>
       </c>
       <c r="E15">
-        <v>1.008149580303677</v>
+        <v>1.071094977514557</v>
       </c>
       <c r="F15">
-        <v>1.014935621110229</v>
+        <v>1.080226717289673</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051498149159901</v>
+        <v>1.055092624368391</v>
       </c>
       <c r="J15">
-        <v>1.024738781215881</v>
+        <v>1.073409334792507</v>
       </c>
       <c r="K15">
-        <v>1.047474006293066</v>
+        <v>1.058188052684544</v>
       </c>
       <c r="L15">
-        <v>1.022848343849844</v>
+        <v>1.074521485760324</v>
       </c>
       <c r="M15">
-        <v>1.029510870463586</v>
+        <v>1.08362221004005</v>
       </c>
       <c r="N15">
-        <v>1.026194027824389</v>
+        <v>1.074933699169684</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.001628141579259</v>
+        <v>1.068103490990374</v>
       </c>
       <c r="D16">
-        <v>1.036655415196618</v>
+        <v>1.055242605416903</v>
       </c>
       <c r="E16">
-        <v>1.013738972991062</v>
+        <v>1.072011789642857</v>
       </c>
       <c r="F16">
-        <v>1.02076656721902</v>
+        <v>1.081197169194076</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.053972629994513</v>
+        <v>1.055419264731356</v>
       </c>
       <c r="J16">
-        <v>1.029700731754276</v>
+        <v>1.074207079307629</v>
       </c>
       <c r="K16">
-        <v>1.050358118970754</v>
+        <v>1.058612914355383</v>
       </c>
       <c r="L16">
-        <v>1.02782855652291</v>
+        <v>1.075325693527868</v>
       </c>
       <c r="M16">
-        <v>1.03473512416949</v>
+        <v>1.084480990046267</v>
       </c>
       <c r="N16">
-        <v>1.031163024901691</v>
+        <v>1.07573257657352</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005487389009256</v>
+        <v>1.068736994653948</v>
       </c>
       <c r="D17">
-        <v>1.038762995586018</v>
+        <v>1.055579811866357</v>
       </c>
       <c r="E17">
-        <v>1.017161538966639</v>
+        <v>1.072586046190968</v>
       </c>
       <c r="F17">
-        <v>1.024338397496279</v>
+        <v>1.081805184785446</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055484266856523</v>
+        <v>1.055623401219478</v>
       </c>
       <c r="J17">
-        <v>1.032736316001678</v>
+        <v>1.074706547588737</v>
       </c>
       <c r="K17">
-        <v>1.052123870809153</v>
+        <v>1.058878806806675</v>
       </c>
       <c r="L17">
-        <v>1.030875209592393</v>
+        <v>1.075829152935588</v>
       </c>
       <c r="M17">
-        <v>1.037932732123429</v>
+        <v>1.085018798150176</v>
       </c>
       <c r="N17">
-        <v>1.034202920026912</v>
+        <v>1.076232754156876</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007705582522893</v>
+        <v>1.069106212918528</v>
       </c>
       <c r="D18">
-        <v>1.039976300999779</v>
+        <v>1.055776355314805</v>
       </c>
       <c r="E18">
-        <v>1.01912931306747</v>
+        <v>1.07292070293128</v>
       </c>
       <c r="F18">
-        <v>1.026392473643728</v>
+        <v>1.082159573118439</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.056352060564595</v>
+        <v>1.055742199379061</v>
       </c>
       <c r="J18">
-        <v>1.034480609983583</v>
+        <v>1.074997545098437</v>
       </c>
       <c r="K18">
-        <v>1.053138912985229</v>
+        <v>1.059033678176112</v>
       </c>
       <c r="L18">
-        <v>1.032625821723878</v>
+        <v>1.076122455763534</v>
       </c>
       <c r="M18">
-        <v>1.039770675661507</v>
+        <v>1.085332178200135</v>
       </c>
       <c r="N18">
-        <v>1.035949691106344</v>
+        <v>1.076524164916418</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.008456521734691</v>
+        <v>1.069232057381656</v>
       </c>
       <c r="D19">
-        <v>1.040387362916201</v>
+        <v>1.055843347360086</v>
       </c>
       <c r="E19">
-        <v>1.019795568492398</v>
+        <v>1.073034762136203</v>
       </c>
       <c r="F19">
-        <v>1.027088031316874</v>
+        <v>1.08228036716478</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.05664565672022</v>
+        <v>1.055782660611139</v>
       </c>
       <c r="J19">
-        <v>1.035071032079156</v>
+        <v>1.075096711409844</v>
       </c>
       <c r="K19">
-        <v>1.053482556577108</v>
+        <v>1.059086448259441</v>
       </c>
       <c r="L19">
-        <v>1.033218374847213</v>
+        <v>1.076222404298647</v>
       </c>
       <c r="M19">
-        <v>1.040392889036744</v>
+        <v>1.085438979713396</v>
       </c>
       <c r="N19">
-        <v>1.036540951669015</v>
+        <v>1.076623472055362</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00507676440479</v>
+        <v>1.068669056180053</v>
       </c>
       <c r="D20">
-        <v>1.038538545526176</v>
+        <v>1.055543647665381</v>
       </c>
       <c r="E20">
-        <v>1.016797316471699</v>
+        <v>1.072524464741742</v>
       </c>
       <c r="F20">
-        <v>1.023958240211288</v>
+        <v>1.081739977121366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05532353708379</v>
+        <v>1.055601527389007</v>
       </c>
       <c r="J20">
-        <v>1.032413378348894</v>
+        <v>1.074652993980157</v>
       </c>
       <c r="K20">
-        <v>1.051935978570439</v>
+        <v>1.058850301766772</v>
       </c>
       <c r="L20">
-        <v>1.030551098674329</v>
+        <v>1.075775173460791</v>
       </c>
       <c r="M20">
-        <v>1.03759250047828</v>
+        <v>1.084961129020717</v>
       </c>
       <c r="N20">
-        <v>1.033879523765619</v>
+        <v>1.07617912449603</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9936899579618601</v>
+        <v>1.066835203380149</v>
       </c>
       <c r="D21">
-        <v>1.032334007920364</v>
+        <v>1.054567600446433</v>
       </c>
       <c r="E21">
-        <v>1.006703213474029</v>
+        <v>1.070861917304311</v>
       </c>
       <c r="F21">
-        <v>1.013427177941445</v>
+        <v>1.079980071264092</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050856721967486</v>
+        <v>1.055009448545711</v>
       </c>
       <c r="J21">
-        <v>1.023453889152391</v>
+        <v>1.07320647793285</v>
       </c>
       <c r="K21">
-        <v>1.046727646934683</v>
+        <v>1.058079980742473</v>
       </c>
       <c r="L21">
-        <v>1.021558694607411</v>
+        <v>1.074316968192414</v>
       </c>
       <c r="M21">
-        <v>1.028158556556242</v>
+        <v>1.083403871358116</v>
       </c>
       <c r="N21">
-        <v>1.02490731106679</v>
+        <v>1.074730554230018</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9861933848717053</v>
+        <v>1.065679451113413</v>
       </c>
       <c r="D22">
-        <v>1.028270568351991</v>
+        <v>1.053952600145298</v>
       </c>
       <c r="E22">
-        <v>1.000064420931067</v>
+        <v>1.069813849017293</v>
       </c>
       <c r="F22">
-        <v>1.00650562271822</v>
+        <v>1.078871153395993</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047907212983565</v>
+        <v>1.054634712013716</v>
       </c>
       <c r="J22">
-        <v>1.017551756913691</v>
+        <v>1.072293915913283</v>
       </c>
       <c r="K22">
-        <v>1.04330204019512</v>
+        <v>1.057593645040713</v>
       </c>
       <c r="L22">
-        <v>1.015634601738259</v>
+        <v>1.073396850556955</v>
       </c>
       <c r="M22">
-        <v>1.021949294296526</v>
+        <v>1.08242185465824</v>
       </c>
       <c r="N22">
-        <v>1.018996797123327</v>
+        <v>1.073816696267711</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.990201633706289</v>
+        <v>1.066292401017797</v>
       </c>
       <c r="D23">
-        <v>1.030441033486367</v>
+        <v>1.054278750044902</v>
       </c>
       <c r="E23">
-        <v>1.00361333602956</v>
+        <v>1.070369715218411</v>
       </c>
       <c r="F23">
-        <v>1.010205259135898</v>
+        <v>1.079459242725362</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.049485006345727</v>
+        <v>1.054833602811581</v>
       </c>
       <c r="J23">
-        <v>1.020707782521333</v>
+        <v>1.072777977759081</v>
       </c>
       <c r="K23">
-        <v>1.045133216888372</v>
+        <v>1.057851652223552</v>
       </c>
       <c r="L23">
-        <v>1.018802389745679</v>
+        <v>1.073884937423503</v>
       </c>
       <c r="M23">
-        <v>1.025269030071554</v>
+        <v>1.082942719511294</v>
       </c>
       <c r="N23">
-        <v>1.022157304649332</v>
+        <v>1.074301445536854</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005262409043548</v>
+        <v>1.068699755559576</v>
       </c>
       <c r="D24">
-        <v>1.038640014135122</v>
+        <v>1.05555998915435</v>
       </c>
       <c r="E24">
-        <v>1.016961980804722</v>
+        <v>1.07255229166687</v>
       </c>
       <c r="F24">
-        <v>1.024130107130534</v>
+        <v>1.081769442451731</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055396206798596</v>
+        <v>1.055611412069498</v>
       </c>
       <c r="J24">
-        <v>1.032559380949613</v>
+        <v>1.074677193582421</v>
       </c>
       <c r="K24">
-        <v>1.052020924828198</v>
+        <v>1.058863182644764</v>
       </c>
       <c r="L24">
-        <v>1.0306976318496</v>
+        <v>1.075799565563607</v>
       </c>
       <c r="M24">
-        <v>1.037746320123859</v>
+        <v>1.084987188189257</v>
       </c>
       <c r="N24">
-        <v>1.034025733706777</v>
+        <v>1.076203358464505</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.0214650080375</v>
+        <v>1.071481880360432</v>
       </c>
       <c r="D25">
-        <v>1.047532535183657</v>
+        <v>1.057041186147721</v>
       </c>
       <c r="E25">
-        <v>1.031343999107419</v>
+        <v>1.075073424097786</v>
       </c>
       <c r="F25">
-        <v>1.039151301105889</v>
+        <v>1.084440264598693</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.061715056765409</v>
+        <v>1.056503392664703</v>
       </c>
       <c r="J25">
-        <v>1.045290970406843</v>
+        <v>1.076868066136146</v>
       </c>
       <c r="K25">
-        <v>1.059435205831473</v>
+        <v>1.06002842334272</v>
       </c>
       <c r="L25">
-        <v>1.043474472789198</v>
+        <v>1.078007436318532</v>
       </c>
       <c r="M25">
-        <v>1.051170791856215</v>
+        <v>1.087347387983532</v>
       </c>
       <c r="N25">
-        <v>1.046775403481371</v>
+        <v>1.078397342308553</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_101/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_101/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.073692111274723</v>
+        <v>1.033534829744714</v>
       </c>
       <c r="D2">
-        <v>1.058218211496913</v>
+        <v>1.054200940065412</v>
       </c>
       <c r="E2">
-        <v>1.077075311459607</v>
+        <v>1.042069427036128</v>
       </c>
       <c r="F2">
-        <v>1.086562834020236</v>
+        <v>1.050367710111231</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057206421313754</v>
+        <v>1.066385200226323</v>
       </c>
       <c r="J2">
-        <v>1.078605341527467</v>
+        <v>1.054756780045519</v>
       </c>
       <c r="K2">
-        <v>1.060951046734055</v>
+        <v>1.064953487711535</v>
       </c>
       <c r="L2">
-        <v>1.079757565694581</v>
+        <v>1.052972203435577</v>
       </c>
       <c r="M2">
-        <v>1.089220356331565</v>
+        <v>1.061167259297914</v>
       </c>
       <c r="N2">
-        <v>1.080137084830198</v>
+        <v>1.056254655655477</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.075292073299121</v>
+        <v>1.041873903604334</v>
       </c>
       <c r="D3">
-        <v>1.059070374326858</v>
+        <v>1.058828122356637</v>
       </c>
       <c r="E3">
-        <v>1.078523867392174</v>
+        <v>1.049484384302148</v>
       </c>
       <c r="F3">
-        <v>1.088099767924962</v>
+        <v>1.058130241167404</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057712079487659</v>
+        <v>1.069588496396338</v>
       </c>
       <c r="J3">
-        <v>1.079861051147557</v>
+        <v>1.061284670956536</v>
       </c>
       <c r="K3">
-        <v>1.061617102541083</v>
+        <v>1.068759802562853</v>
       </c>
       <c r="L3">
-        <v>1.081022206009091</v>
+        <v>1.059520958884701</v>
       </c>
       <c r="M3">
-        <v>1.090574969929079</v>
+        <v>1.068069677148696</v>
       </c>
       <c r="N3">
-        <v>1.081394577701981</v>
+        <v>1.062791816920348</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.076325182139354</v>
+        <v>1.047092930499277</v>
       </c>
       <c r="D4">
-        <v>1.059620665597557</v>
+        <v>1.061731707196631</v>
       </c>
       <c r="E4">
-        <v>1.079458937069582</v>
+        <v>1.054126651385527</v>
       </c>
       <c r="F4">
-        <v>1.089092373374839</v>
+        <v>1.062993841810531</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.058037076411512</v>
+        <v>1.071581923343012</v>
       </c>
       <c r="J4">
-        <v>1.080670999157529</v>
+        <v>1.065364165552284</v>
       </c>
       <c r="K4">
-        <v>1.062046327911244</v>
+        <v>1.071138079623906</v>
       </c>
       <c r="L4">
-        <v>1.081837748434588</v>
+        <v>1.063612921260283</v>
       </c>
       <c r="M4">
-        <v>1.09144909363406</v>
+        <v>1.072387089512083</v>
       </c>
       <c r="N4">
-        <v>1.082205675931029</v>
+        <v>1.066877104866346</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.076758991419494</v>
+        <v>1.049247260688984</v>
       </c>
       <c r="D5">
-        <v>1.059851744365672</v>
+        <v>1.062931882686715</v>
       </c>
       <c r="E5">
-        <v>1.079851512805148</v>
+        <v>1.056043210132273</v>
       </c>
       <c r="F5">
-        <v>1.08950922094694</v>
+        <v>1.065002668905723</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.058173182423677</v>
+        <v>1.072401969768046</v>
       </c>
       <c r="J5">
-        <v>1.081010892097526</v>
+        <v>1.06704661739003</v>
       </c>
       <c r="K5">
-        <v>1.062226356927745</v>
+        <v>1.072118716490392</v>
       </c>
       <c r="L5">
-        <v>1.082179949408066</v>
+        <v>1.065300372854223</v>
       </c>
       <c r="M5">
-        <v>1.091816009101814</v>
+        <v>1.074168577763048</v>
       </c>
       <c r="N5">
-        <v>1.082546051557987</v>
+        <v>1.068561945978681</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076831800327847</v>
+        <v>1.04960672252208</v>
       </c>
       <c r="D6">
-        <v>1.059890528139427</v>
+        <v>1.063132228061079</v>
       </c>
       <c r="E6">
-        <v>1.079917397334065</v>
+        <v>1.056363014321137</v>
       </c>
       <c r="F6">
-        <v>1.089579185742899</v>
+        <v>1.065337921636565</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.058196004670526</v>
+        <v>1.072538631555676</v>
       </c>
       <c r="J6">
-        <v>1.081067926138834</v>
+        <v>1.067327254006427</v>
       </c>
       <c r="K6">
-        <v>1.062256560216599</v>
+        <v>1.072282273892551</v>
       </c>
       <c r="L6">
-        <v>1.082237368414383</v>
+        <v>1.065581834941638</v>
       </c>
       <c r="M6">
-        <v>1.091877582881484</v>
+        <v>1.074465787391214</v>
       </c>
       <c r="N6">
-        <v>1.082603166594175</v>
+        <v>1.068842981131263</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.076330980709682</v>
+        <v>1.047121869688364</v>
       </c>
       <c r="D7">
-        <v>1.059623754315454</v>
+        <v>1.061747823039854</v>
       </c>
       <c r="E7">
-        <v>1.079464184747116</v>
+        <v>1.054152395470867</v>
       </c>
       <c r="F7">
-        <v>1.089097945044359</v>
+        <v>1.063020821762794</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.058038897116307</v>
+        <v>1.071592950280007</v>
       </c>
       <c r="J7">
-        <v>1.080675543206938</v>
+        <v>1.065386771989798</v>
       </c>
       <c r="K7">
-        <v>1.062048735103463</v>
+        <v>1.071151256996025</v>
       </c>
       <c r="L7">
-        <v>1.081842323496043</v>
+        <v>1.063635595447054</v>
       </c>
       <c r="M7">
-        <v>1.091453998590084</v>
+        <v>1.072411023051228</v>
       </c>
       <c r="N7">
-        <v>1.08221022643351</v>
+        <v>1.066899743407595</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.074233282436081</v>
+        <v>1.036391337847728</v>
       </c>
       <c r="D8">
-        <v>1.058506436772909</v>
+        <v>1.055784202465099</v>
       </c>
       <c r="E8">
-        <v>1.077565327792587</v>
+        <v>1.044608994514231</v>
       </c>
       <c r="F8">
-        <v>1.087082645878248</v>
+        <v>1.05302552797243</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057377767997524</v>
+        <v>1.067484824696857</v>
       </c>
       <c r="J8">
-        <v>1.07903025381357</v>
+        <v>1.056994108186593</v>
       </c>
       <c r="K8">
-        <v>1.061176509303592</v>
+        <v>1.066258060895533</v>
       </c>
       <c r="L8">
-        <v>1.080185534483794</v>
+        <v>1.055216800083149</v>
       </c>
       <c r="M8">
-        <v>1.089678657023304</v>
+        <v>1.063532124516258</v>
       </c>
       <c r="N8">
-        <v>1.080562600540486</v>
+        <v>1.058495161059137</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.070519742466358</v>
+        <v>1.015996031543263</v>
       </c>
       <c r="D9">
-        <v>1.056528892533042</v>
+        <v>1.044523078388523</v>
       </c>
       <c r="E9">
-        <v>1.074201698882506</v>
+        <v>1.026487319271574</v>
       </c>
       <c r="F9">
-        <v>1.083516498515569</v>
+        <v>1.034076464441874</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.056195786632188</v>
+        <v>1.059587837454251</v>
       </c>
       <c r="J9">
-        <v>1.076110901907652</v>
+        <v>1.040996304107507</v>
       </c>
       <c r="K9">
-        <v>1.059625925244611</v>
+        <v>1.056932860412283</v>
       </c>
       <c r="L9">
-        <v>1.077244494794832</v>
+        <v>1.039164793439265</v>
       </c>
       <c r="M9">
-        <v>1.086531483393146</v>
+        <v>1.046639851234912</v>
       </c>
       <c r="N9">
-        <v>1.077639102820007</v>
+        <v>1.042474638263285</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.068031858937276</v>
+        <v>1.001187437535583</v>
       </c>
       <c r="D10">
-        <v>1.055204478347131</v>
+        <v>1.036415015426773</v>
       </c>
       <c r="E10">
-        <v>1.071946852621314</v>
+        <v>1.013348218171386</v>
       </c>
       <c r="F10">
-        <v>1.081128422552664</v>
+        <v>1.02035883745301</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.055396158548628</v>
+        <v>1.053799868538354</v>
       </c>
       <c r="J10">
-        <v>1.07415058916676</v>
+        <v>1.029354022330276</v>
       </c>
       <c r="K10">
-        <v>1.058582836191676</v>
+        <v>1.050156504984243</v>
       </c>
       <c r="L10">
-        <v>1.075268749280789</v>
+        <v>1.027480577437211</v>
       </c>
       <c r="M10">
-        <v>1.084420169773246</v>
+        <v>1.034369985195124</v>
       </c>
       <c r="N10">
-        <v>1.075676006210172</v>
+        <v>1.030815823110541</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.066951535703125</v>
+        <v>0.9944302982359602</v>
       </c>
       <c r="D11">
-        <v>1.05462950937498</v>
+        <v>1.032736238939841</v>
       </c>
       <c r="E11">
-        <v>1.070967398969375</v>
+        <v>1.007359141928903</v>
       </c>
       <c r="F11">
-        <v>1.080091699306351</v>
+        <v>1.014111236614613</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.055047100472049</v>
+        <v>1.051147663898302</v>
       </c>
       <c r="J11">
-        <v>1.073298292953624</v>
+        <v>1.024036633100315</v>
       </c>
       <c r="K11">
-        <v>1.058128896889095</v>
+        <v>1.04706612170636</v>
       </c>
       <c r="L11">
-        <v>1.074409535722764</v>
+        <v>1.022143597358776</v>
       </c>
       <c r="M11">
-        <v>1.083502691673395</v>
+        <v>1.028771853503492</v>
       </c>
       <c r="N11">
-        <v>1.074822499638653</v>
+        <v>1.025490882577961</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.066549783757778</v>
+        <v>0.9918627337971578</v>
       </c>
       <c r="D12">
-        <v>1.054415712399632</v>
+        <v>1.031341980880093</v>
       </c>
       <c r="E12">
-        <v>1.070603110454593</v>
+        <v>1.005084551620618</v>
       </c>
       <c r="F12">
-        <v>1.079706201163994</v>
+        <v>1.011739248704753</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054917017691414</v>
+        <v>1.050138374575383</v>
       </c>
       <c r="J12">
-        <v>1.072981180754675</v>
+        <v>1.022015515046637</v>
       </c>
       <c r="K12">
-        <v>1.057959937569468</v>
+        <v>1.045892382615084</v>
       </c>
       <c r="L12">
-        <v>1.074089818512156</v>
+        <v>1.020114983681211</v>
       </c>
       <c r="M12">
-        <v>1.083161397957304</v>
+        <v>1.026644946928491</v>
       </c>
       <c r="N12">
-        <v>1.074504937104009</v>
+        <v>1.023466894304821</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.066635982474831</v>
+        <v>0.9924161984813002</v>
       </c>
       <c r="D13">
-        <v>1.054461582957648</v>
+        <v>1.031642357368227</v>
       </c>
       <c r="E13">
-        <v>1.070681273295662</v>
+        <v>1.005574808671577</v>
       </c>
       <c r="F13">
-        <v>1.079788910701536</v>
+        <v>1.01225046281235</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054944940285076</v>
+        <v>1.050356002364197</v>
       </c>
       <c r="J13">
-        <v>1.073049226614972</v>
+        <v>1.022451213652602</v>
       </c>
       <c r="K13">
-        <v>1.057996195645838</v>
+        <v>1.046145364721323</v>
       </c>
       <c r="L13">
-        <v>1.074158424772463</v>
+        <v>1.02055230005812</v>
       </c>
       <c r="M13">
-        <v>1.083234629488179</v>
+        <v>1.02710340855067</v>
       </c>
       <c r="N13">
-        <v>1.074573079597232</v>
+        <v>1.023903211652782</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06691833646256</v>
+        <v>0.9942192759710987</v>
       </c>
       <c r="D14">
-        <v>1.05461184152391</v>
+        <v>1.032621572429299</v>
       </c>
       <c r="E14">
-        <v>1.07093729654073</v>
+        <v>1.007172174563478</v>
       </c>
       <c r="F14">
-        <v>1.080059842402399</v>
+        <v>1.013916247331547</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055036356526064</v>
+        <v>1.051064742250799</v>
       </c>
       <c r="J14">
-        <v>1.073272091262178</v>
+        <v>1.02387053390742</v>
       </c>
       <c r="K14">
-        <v>1.058114937743293</v>
+        <v>1.046969642071008</v>
       </c>
       <c r="L14">
-        <v>1.074383119428348</v>
+        <v>1.021976883050788</v>
       </c>
       <c r="M14">
-        <v>1.083474490522289</v>
+        <v>1.028597041554551</v>
       </c>
       <c r="N14">
-        <v>1.0747962607378</v>
+        <v>1.02532454750516</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.067092241162517</v>
+        <v>0.9953223801280534</v>
       </c>
       <c r="D15">
-        <v>1.054704390460107</v>
+        <v>1.03322113234746</v>
       </c>
       <c r="E15">
-        <v>1.071094977514557</v>
+        <v>1.008149580303677</v>
       </c>
       <c r="F15">
-        <v>1.080226717289673</v>
+        <v>1.014935621110228</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055092624368391</v>
+        <v>1.051498149159901</v>
       </c>
       <c r="J15">
-        <v>1.073409334792507</v>
+        <v>1.024738781215881</v>
       </c>
       <c r="K15">
-        <v>1.058188052684544</v>
+        <v>1.047474006293066</v>
       </c>
       <c r="L15">
-        <v>1.074521485760324</v>
+        <v>1.022848343849844</v>
       </c>
       <c r="M15">
-        <v>1.08362221004005</v>
+        <v>1.029510870463586</v>
       </c>
       <c r="N15">
-        <v>1.074933699169684</v>
+        <v>1.026194027824388</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.068103490990374</v>
+        <v>1.001628141579257</v>
       </c>
       <c r="D16">
-        <v>1.055242605416903</v>
+        <v>1.036655415196617</v>
       </c>
       <c r="E16">
-        <v>1.072011789642857</v>
+        <v>1.01373897299106</v>
       </c>
       <c r="F16">
-        <v>1.081197169194076</v>
+        <v>1.020766567219017</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.055419264731356</v>
+        <v>1.053972629994512</v>
       </c>
       <c r="J16">
-        <v>1.074207079307629</v>
+        <v>1.029700731754274</v>
       </c>
       <c r="K16">
-        <v>1.058612914355383</v>
+        <v>1.050358118970752</v>
       </c>
       <c r="L16">
-        <v>1.075325693527868</v>
+        <v>1.027828556522907</v>
       </c>
       <c r="M16">
-        <v>1.084480990046267</v>
+        <v>1.034735124169488</v>
       </c>
       <c r="N16">
-        <v>1.07573257657352</v>
+        <v>1.031163024901689</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.068736994653948</v>
+        <v>1.005487389009255</v>
       </c>
       <c r="D17">
-        <v>1.055579811866357</v>
+        <v>1.038762995586018</v>
       </c>
       <c r="E17">
-        <v>1.072586046190968</v>
+        <v>1.017161538966638</v>
       </c>
       <c r="F17">
-        <v>1.081805184785446</v>
+        <v>1.024338397496277</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055623401219478</v>
+        <v>1.055484266856522</v>
       </c>
       <c r="J17">
-        <v>1.074706547588737</v>
+        <v>1.032736316001677</v>
       </c>
       <c r="K17">
-        <v>1.058878806806675</v>
+        <v>1.052123870809153</v>
       </c>
       <c r="L17">
-        <v>1.075829152935588</v>
+        <v>1.030875209592392</v>
       </c>
       <c r="M17">
-        <v>1.085018798150176</v>
+        <v>1.037932732123427</v>
       </c>
       <c r="N17">
-        <v>1.076232754156876</v>
+        <v>1.034202920026911</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.069106212918528</v>
+        <v>1.007705582522892</v>
       </c>
       <c r="D18">
-        <v>1.055776355314805</v>
+        <v>1.039976300999779</v>
       </c>
       <c r="E18">
-        <v>1.07292070293128</v>
+        <v>1.019129313067469</v>
       </c>
       <c r="F18">
-        <v>1.082159573118439</v>
+        <v>1.026392473643727</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055742199379061</v>
+        <v>1.056352060564594</v>
       </c>
       <c r="J18">
-        <v>1.074997545098437</v>
+        <v>1.034480609983583</v>
       </c>
       <c r="K18">
-        <v>1.059033678176112</v>
+        <v>1.053138912985228</v>
       </c>
       <c r="L18">
-        <v>1.076122455763534</v>
+        <v>1.032625821723877</v>
       </c>
       <c r="M18">
-        <v>1.085332178200135</v>
+        <v>1.039770675661506</v>
       </c>
       <c r="N18">
-        <v>1.076524164916418</v>
+        <v>1.035949691106343</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.069232057381656</v>
+        <v>1.008456521734692</v>
       </c>
       <c r="D19">
-        <v>1.055843347360086</v>
+        <v>1.040387362916201</v>
       </c>
       <c r="E19">
-        <v>1.073034762136203</v>
+        <v>1.0197955684924</v>
       </c>
       <c r="F19">
-        <v>1.08228036716478</v>
+        <v>1.027088031316875</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055782660611139</v>
+        <v>1.056645656720221</v>
       </c>
       <c r="J19">
-        <v>1.075096711409844</v>
+        <v>1.035071032079157</v>
       </c>
       <c r="K19">
-        <v>1.059086448259441</v>
+        <v>1.053482556577109</v>
       </c>
       <c r="L19">
-        <v>1.076222404298647</v>
+        <v>1.033218374847215</v>
       </c>
       <c r="M19">
-        <v>1.085438979713396</v>
+        <v>1.040392889036746</v>
       </c>
       <c r="N19">
-        <v>1.076623472055362</v>
+        <v>1.036540951669016</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.068669056180053</v>
+        <v>1.005076764404791</v>
       </c>
       <c r="D20">
-        <v>1.055543647665381</v>
+        <v>1.038538545526177</v>
       </c>
       <c r="E20">
-        <v>1.072524464741742</v>
+        <v>1.016797316471699</v>
       </c>
       <c r="F20">
-        <v>1.081739977121366</v>
+        <v>1.023958240211289</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055601527389007</v>
+        <v>1.05532353708379</v>
       </c>
       <c r="J20">
-        <v>1.074652993980157</v>
+        <v>1.032413378348894</v>
       </c>
       <c r="K20">
-        <v>1.058850301766772</v>
+        <v>1.05193597857044</v>
       </c>
       <c r="L20">
-        <v>1.075775173460791</v>
+        <v>1.03055109867433</v>
       </c>
       <c r="M20">
-        <v>1.084961129020717</v>
+        <v>1.03759250047828</v>
       </c>
       <c r="N20">
-        <v>1.07617912449603</v>
+        <v>1.033879523765619</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.066835203380149</v>
+        <v>0.9936899579618607</v>
       </c>
       <c r="D21">
-        <v>1.054567600446433</v>
+        <v>1.032334007920364</v>
       </c>
       <c r="E21">
-        <v>1.070861917304311</v>
+        <v>1.006703213474029</v>
       </c>
       <c r="F21">
-        <v>1.079980071264092</v>
+        <v>1.013427177941445</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055009448545711</v>
+        <v>1.050856721967486</v>
       </c>
       <c r="J21">
-        <v>1.07320647793285</v>
+        <v>1.023453889152392</v>
       </c>
       <c r="K21">
-        <v>1.058079980742473</v>
+        <v>1.046727646934683</v>
       </c>
       <c r="L21">
-        <v>1.074316968192414</v>
+        <v>1.021558694607411</v>
       </c>
       <c r="M21">
-        <v>1.083403871358116</v>
+        <v>1.028158556556242</v>
       </c>
       <c r="N21">
-        <v>1.074730554230018</v>
+        <v>1.02490731106679</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.065679451113413</v>
+        <v>0.9861933848717044</v>
       </c>
       <c r="D22">
-        <v>1.053952600145298</v>
+        <v>1.028270568351991</v>
       </c>
       <c r="E22">
-        <v>1.069813849017293</v>
+        <v>1.000064420931065</v>
       </c>
       <c r="F22">
-        <v>1.078871153395993</v>
+        <v>1.006505622718219</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054634712013716</v>
+        <v>1.047907212983565</v>
       </c>
       <c r="J22">
-        <v>1.072293915913283</v>
+        <v>1.01755175691369</v>
       </c>
       <c r="K22">
-        <v>1.057593645040713</v>
+        <v>1.04330204019512</v>
       </c>
       <c r="L22">
-        <v>1.073396850556955</v>
+        <v>1.015634601738258</v>
       </c>
       <c r="M22">
-        <v>1.08242185465824</v>
+        <v>1.021949294296525</v>
       </c>
       <c r="N22">
-        <v>1.073816696267711</v>
+        <v>1.018996797123326</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.066292401017797</v>
+        <v>0.990201633706287</v>
       </c>
       <c r="D23">
-        <v>1.054278750044902</v>
+        <v>1.030441033486367</v>
       </c>
       <c r="E23">
-        <v>1.070369715218411</v>
+        <v>1.003613336029559</v>
       </c>
       <c r="F23">
-        <v>1.079459242725362</v>
+        <v>1.010205259135897</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054833602811581</v>
+        <v>1.049485006345726</v>
       </c>
       <c r="J23">
-        <v>1.072777977759081</v>
+        <v>1.020707782521331</v>
       </c>
       <c r="K23">
-        <v>1.057851652223552</v>
+        <v>1.045133216888372</v>
       </c>
       <c r="L23">
-        <v>1.073884937423503</v>
+        <v>1.018802389745678</v>
       </c>
       <c r="M23">
-        <v>1.082942719511294</v>
+        <v>1.025269030071553</v>
       </c>
       <c r="N23">
-        <v>1.074301445536854</v>
+        <v>1.02215730464933</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.068699755559576</v>
+        <v>1.005262409043548</v>
       </c>
       <c r="D24">
-        <v>1.05555998915435</v>
+        <v>1.038640014135122</v>
       </c>
       <c r="E24">
-        <v>1.07255229166687</v>
+        <v>1.016961980804722</v>
       </c>
       <c r="F24">
-        <v>1.081769442451731</v>
+        <v>1.024130107130534</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055611412069498</v>
+        <v>1.055396206798596</v>
       </c>
       <c r="J24">
-        <v>1.074677193582421</v>
+        <v>1.032559380949613</v>
       </c>
       <c r="K24">
-        <v>1.058863182644764</v>
+        <v>1.052020924828197</v>
       </c>
       <c r="L24">
-        <v>1.075799565563607</v>
+        <v>1.0306976318496</v>
       </c>
       <c r="M24">
-        <v>1.084987188189257</v>
+        <v>1.03774632012386</v>
       </c>
       <c r="N24">
-        <v>1.076203358464505</v>
+        <v>1.034025733706778</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.071481880360432</v>
+        <v>1.021465008037499</v>
       </c>
       <c r="D25">
-        <v>1.057041186147721</v>
+        <v>1.047532535183658</v>
       </c>
       <c r="E25">
-        <v>1.075073424097786</v>
+        <v>1.031343999107419</v>
       </c>
       <c r="F25">
-        <v>1.084440264598693</v>
+        <v>1.039151301105889</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056503392664703</v>
+        <v>1.061715056765408</v>
       </c>
       <c r="J25">
-        <v>1.076868066136146</v>
+        <v>1.045290970406842</v>
       </c>
       <c r="K25">
-        <v>1.06002842334272</v>
+        <v>1.059435205831473</v>
       </c>
       <c r="L25">
-        <v>1.078007436318532</v>
+        <v>1.043474472789197</v>
       </c>
       <c r="M25">
-        <v>1.087347387983532</v>
+        <v>1.051170791856214</v>
       </c>
       <c r="N25">
-        <v>1.078397342308553</v>
+        <v>1.04677540348137</v>
       </c>
     </row>
   </sheetData>
